--- a/Symphony/2021/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -43,23 +43,23 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Utsob Telecom</t>
-  </si>
-  <si>
-    <t>RET-34993</t>
-  </si>
-  <si>
-    <t>RET-07868</t>
-  </si>
-  <si>
-    <t>S.N Mobile Center</t>
+    <t>RET-35284</t>
+  </si>
+  <si>
+    <t>Ashim Exclusive Showroom</t>
+  </si>
+  <si>
+    <t>Noyon Telecom</t>
+  </si>
+  <si>
+    <t>RET-12864</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +223,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,14 +434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="2" bestFit="1" customWidth="1"/>
@@ -450,7 +452,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -470,43 +472,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>1748951965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1303724822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="4">
-        <v>1779767130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1730120547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -514,7 +516,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -522,7 +524,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -530,7 +532,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -538,7 +540,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -546,7 +548,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -554,7 +556,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -562,7 +564,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -570,7 +572,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>

--- a/Symphony/2021/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Dealer Name</t>
   </si>
@@ -43,16 +43,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>RET-35284</t>
-  </si>
-  <si>
-    <t>Ashim Exclusive Showroom</t>
-  </si>
-  <si>
-    <t>Noyon Telecom</t>
-  </si>
-  <si>
-    <t>RET-12864</t>
+    <t>Nahar Telecom</t>
+  </si>
+  <si>
+    <t>RET-08786</t>
   </si>
 </sst>
 </file>
@@ -438,7 +432,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,36 +471,26 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>1303724822</v>
+        <v>1836302020</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1730120547</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
